--- a/biology/Zoologie/Holacanthus_passer/Holacanthus_passer.xlsx
+++ b/biology/Zoologie/Holacanthus_passer/Holacanthus_passer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-ange à barre blanche[1] ou Demoiselle royale[2] (Holacanthus passer ) est une espèce de poissons de la famille des pomacanthidés. Il est réparti sur le Pacifique Est du golfe de Californie au Pérou, îles Galápagos incluses. La taille maximum de pour cette espèce est de 25 cm[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-ange à barre blanche ou Demoiselle royale (Holacanthus passer ) est une espèce de poissons de la famille des pomacanthidés. Il est réparti sur le Pacifique Est du golfe de Californie au Pérou, îles Galápagos incluses. La taille maximum de pour cette espèce est de 25 cm.
 </t>
         </is>
       </c>
